--- a/out/production/WoOh/Restaurants.xlsx
+++ b/out/production/WoOh/Restaurants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e8a4b867a72e27a/Desktop/Bj-Wo_Oh1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\IdeaProjects\WoOh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7C9B0DDB-1C96-43E1-9045-2C6C30082F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6106B4AD-BFFD-4645-A0A5-0B5512A254B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366F0BB-97C9-4DD7-8FAF-4866519A299A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3915" yWindow="2175" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3210" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>Pizzeria Figio</t>
   </si>
@@ -28,13 +28,7 @@
     <t>italienisch</t>
   </si>
   <si>
-    <t>Johannisstraße 27 Nürnberg 90419</t>
-  </si>
-  <si>
     <t>Pommes,4.50,7.20,Mayonnaise/Ketchup</t>
-  </si>
-  <si>
-    <t>Spaghetti Carbonara,10.50,15.00,Speck/Käse</t>
   </si>
   <si>
     <t>Pizza Salami,8.50,15.00,Salami/Mozzarella</t>
@@ -44,6 +38,15 @@
   </si>
   <si>
     <t>Figio Pizzeria</t>
+  </si>
+  <si>
+    <t>Bucher Str 25 Nuernberg 90419</t>
+  </si>
+  <si>
+    <t>Spaghetti Carbonara,10.50,15.00,Speck/Kaese</t>
+  </si>
+  <si>
+    <t>Pizza Salami,8.50,15.00,Salami</t>
   </si>
 </sst>
 </file>
@@ -884,13 +887,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -900,42 +906,88 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/out/production/WoOh/Restaurants.xlsx
+++ b/out/production/WoOh/Restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\IdeaProjects\WoOh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366F0BB-97C9-4DD7-8FAF-4866519A299A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B151CE-409D-4F5F-B94A-C74D429BB9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3210" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="2055" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
-  <si>
-    <t>Pizzeria Figio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>italienisch</t>
   </si>
@@ -37,9 +34,6 @@
     <t>Caprese,6.50,8.00,Tomaten/Mozzarella/Basilikum</t>
   </si>
   <si>
-    <t>Figio Pizzeria</t>
-  </si>
-  <si>
     <t>Bucher Str 25 Nuernberg 90419</t>
   </si>
   <si>
@@ -47,6 +41,18 @@
   </si>
   <si>
     <t>Pizza Salami,8.50,15.00,Salami</t>
+  </si>
+  <si>
+    <t>Pizzeria 1</t>
+  </si>
+  <si>
+    <t>Pizzeria 2</t>
+  </si>
+  <si>
+    <t>Pizzeria 3</t>
+  </si>
+  <si>
+    <t>Pizzeria 4</t>
   </si>
 </sst>
 </file>
@@ -890,7 +896,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,94 +906,94 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/out/production/WoOh/Restaurants.xlsx
+++ b/out/production/WoOh/Restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\IdeaProjects\WoOh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B151CE-409D-4F5F-B94A-C74D429BB9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B43D779-365E-4F2E-A146-9BF82B01177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="2055" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t>italienisch</t>
   </si>
@@ -53,13 +53,265 @@
   </si>
   <si>
     <t>Pizzeria 4</t>
+  </si>
+  <si>
+    <t>burgerme</t>
+  </si>
+  <si>
+    <t>Amerikansisch</t>
+  </si>
+  <si>
+    <t>Bucher Strasse 35 Nuernberg 90419</t>
+  </si>
+  <si>
+    <t>CheeseBurger,8.49,8.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>SueßkartoffelPommes,4.69,6.20,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>Hamburger,7.49,8.20,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>TrippleCheeseBurger,9.49,9.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>NewYorkerBurger,7.49,9.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>BaconEggsBurger,9.49,9.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>CrunchyChickenBurger,8.49,7.40,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>GrilledChickenBurger,9.49,11.30,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>CrustyChickenBurger,7.49,8.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>Pommes,3.69,6.50,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>ChickenWings,6.49,8.20,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>ChickenNuggets,6.49,6.50,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>ChickenFingers,6.49,7.50,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>Chili-CheeseNuggets,6.49,8.20,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>Vuong - Citywok</t>
+  </si>
+  <si>
+    <t>Asiatisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothenburger Strasse 65 Nuernberg 90443 </t>
+  </si>
+  <si>
+    <t>Fruehlingsrolle,2.50,4.10,Hackfleisch/Gemuese</t>
+  </si>
+  <si>
+    <t>Wan-TanSuppe,3.00,5.20,Soja/Hackfleisch</t>
+  </si>
+  <si>
+    <t>GemischterSalat,4.50,6.10,Joghurt-Dressing/Balsamico-Dressing</t>
+  </si>
+  <si>
+    <t>Huehnerfleischsalat,5.50,7.30,Huehnerfleisch/Joghurt-Dressing</t>
+  </si>
+  <si>
+    <t>SpinatMakiSushi,4.20,3.40,Spinat/Sesam</t>
+  </si>
+  <si>
+    <t>KappaMakiSushi,3.60,3.50,Sesam/Gurken</t>
+  </si>
+  <si>
+    <t>GebratenerReismitHuehnerfleisch,7.90,11.30,Reis/Huehnerfleisch/Gemuese</t>
+  </si>
+  <si>
+    <t>GebratenerReismitRindfleisch,7.90,10.50,Rinderfleisch/Gemuese/Reis</t>
+  </si>
+  <si>
+    <t>GebrateneNudelnmitknusprigenEntenfleisch,10.50,13.20,Ente/Nudeln/Gemuese</t>
+  </si>
+  <si>
+    <t>NudelnmitRinderfleisch,11.50,11.20,Rinderfleisch/Nudeln/Gemuese</t>
+  </si>
+  <si>
+    <t>knusprigesHaehnchen,8.90,9.20,Suess-Sauer-Sosse/Haehnchen</t>
+  </si>
+  <si>
+    <t>paniertesHaehnchenKnoblauch,8.90,10.50,Suess-Sauer-Sosse/Scharfer-Sosse/Haehnchen</t>
+  </si>
+  <si>
+    <t>GebratenerTintenfisch,13.50,11.20,Gemuese/Sichuansauce</t>
+  </si>
+  <si>
+    <t>Pizza Cappucino</t>
+  </si>
+  <si>
+    <t>Italiennisch</t>
+  </si>
+  <si>
+    <t>Rollnerstrasse 182 Nuernberg 90425</t>
+  </si>
+  <si>
+    <t>SalatCappucino,10.00,4.40,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
+  </si>
+  <si>
+    <t>RucolaSalatmitKirschtomaten,9.90,5.20,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
+  </si>
+  <si>
+    <t>ItalienischerSalat,8.50,5.30,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
+  </si>
+  <si>
+    <t>HähnchenSalat,9.90,6.20,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
+  </si>
+  <si>
+    <t>PizzaMargherita,7.00,10.50,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>PizzaFormaggio,8.00,10.40,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>PizzaSalami,8.00,11.20,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>PizzaSpezial,8.50,12.50,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>PizzaHawaii,8.50,10.50,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>SpaghettiBolognese,9.90,8.20,Parmesan</t>
+  </si>
+  <si>
+    <t>PastaChicken,9.90,9.30,Parmesan</t>
+  </si>
+  <si>
+    <t>PastaParmaschinken,10.90,10.40,Parmesan</t>
+  </si>
+  <si>
+    <t>PastaAioli,8.90,8.40,Parmesan</t>
+  </si>
+  <si>
+    <t>PastaTortellini,9.90,10.20,Parmesan</t>
+  </si>
+  <si>
+    <t>Panjabi Shaan</t>
+  </si>
+  <si>
+    <t>Indisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayreuther Strasse 36 Nuernberg 90489 </t>
+  </si>
+  <si>
+    <t>Linsenfladen,3.00,2.20,Linsen/Olivenoel</t>
+  </si>
+  <si>
+    <t>Zwiebelringe,5.50,4.50,Zwiebeln/Kichererbsenmehl</t>
+  </si>
+  <si>
+    <t>Linsensuppe,4.00,5.30,Koriander/Linsen</t>
+  </si>
+  <si>
+    <t>HuehnerfleischKurkumaSuppe,4.50,6.30,Kurkuma/Huehnerfleisch</t>
+  </si>
+  <si>
+    <t>gemischterSalat,4.90,6.20,Joghurt-Dressing/Olivenoel</t>
+  </si>
+  <si>
+    <t>SalatmitgerilltenHaehnchenbrustfilet,9.90,9.40,Haehnchenfleisch/Joghurt-Dressin/Naanbrot</t>
+  </si>
+  <si>
+    <t>CurrymitHaehnchenbrustfillet,13.50,14.20,Haehnchenfleisch/Curry/Cashew-Kokos-Sahnesauce</t>
+  </si>
+  <si>
+    <t>CurrymitEntenfleisch,15.50,16.20,Entenfleisch/Curry/Gemuese</t>
+  </si>
+  <si>
+    <t>RoganCurry,14.50,13.30,Lammfilet/Curry</t>
+  </si>
+  <si>
+    <t>SeelachsfiletmitTomatensosse,14.90,12.40,Tomatensosse/Lachsfilet/Ingwer</t>
+  </si>
+  <si>
+    <t>SeelachfiletmitMangososse,14.90,14.20,Mangososse/Lachsfilet</t>
+  </si>
+  <si>
+    <t>ReismitHuehnchenfleisch,12.90,Curry/Huehnchenfleisch/Reis</t>
+  </si>
+  <si>
+    <t>Hefeteigbrot,2.50,4.50,Salz/Olivenoel/Origano</t>
+  </si>
+  <si>
+    <t>HefeteigbromitfrischerIngwer,3.50,5.20,Ingwer/Brot/Butter</t>
+  </si>
+  <si>
+    <t>Asia Imbiss MEI-KA</t>
+  </si>
+  <si>
+    <t>Faerberstrasse 50 Nuernberg 90402</t>
+  </si>
+  <si>
+    <t>KnusprigeEnte,13.00,8.40,Reis/Nudeln</t>
+  </si>
+  <si>
+    <t>GebrateneNudelnmitHuehnerfleisch, 10.00,6.20, Reis/Huehnerfleisch</t>
+  </si>
+  <si>
+    <t>Suppe,4.50,2.20, Gemuese/Reis</t>
+  </si>
+  <si>
+    <t>Maissuppe,4.50,2.30,Mais/Reis</t>
+  </si>
+  <si>
+    <t>Seetang-Eier-Suppe,4.50,3.10</t>
+  </si>
+  <si>
+    <t>VegetarischeMini-Fruehlingsrollen, 3.20,2.00</t>
+  </si>
+  <si>
+    <t>Haehnchenfleischsuppe,5.50,4.10, Champignons, Tomaten</t>
+  </si>
+  <si>
+    <t>Schweinefleisch,13.00,6.10, Ingwer/Fruehlingslauch/Gemuese</t>
+  </si>
+  <si>
+    <t>GebratenerTofu,13.00,5.00, Schweinefleisch/Gemuese/Reis</t>
+  </si>
+  <si>
+    <t>HausgemachterchinesischerSpeck,14.00,5.50,Reis/Gemuese</t>
+  </si>
+  <si>
+    <t>Schweinerippchen,14.00,7.00, Sichuan-Pfeffer/Reis</t>
+  </si>
+  <si>
+    <t>Rindfleisch,14.00,8.00, schwarzer Pfeffer/Chili/Reis</t>
+  </si>
+  <si>
+    <t>GebrateneHummerkrabben,17.00,9.00,Gemuese/Reis</t>
+  </si>
+  <si>
+    <t>GebratenerTintenfisch,15.00,9.00,Gemuese/Sichuansauce</t>
+  </si>
+  <si>
+    <t>GebratenerReismitknusprigenEntenfleisch13.00,5.00,Entenfleisch/Gemuese/Reis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +444,20 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -536,8 +802,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,18 +1164,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="80.42578125" customWidth="1"/>
+    <col min="5" max="5" width="82" customWidth="1"/>
     <col min="6" max="6" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -927,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -950,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -973,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -994,9 +1267,275 @@
       </c>
       <c r="G4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/out/production/WoOh/Restaurants.xlsx
+++ b/out/production/WoOh/Restaurants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\IdeaProjects\WoOh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B43D779-365E-4F2E-A146-9BF82B01177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8F7DFB-FFF9-4433-8B7B-A538ACF169F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2055" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="2055" windowWidth="20910" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants" sheetId="1" r:id="rId1"/>
@@ -20,92 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
-  <si>
-    <t>italienisch</t>
-  </si>
-  <si>
-    <t>Pommes,4.50,7.20,Mayonnaise/Ketchup</t>
-  </si>
-  <si>
-    <t>Pizza Salami,8.50,15.00,Salami/Mozzarella</t>
-  </si>
-  <si>
-    <t>Caprese,6.50,8.00,Tomaten/Mozzarella/Basilikum</t>
-  </si>
-  <si>
-    <t>Bucher Str 25 Nuernberg 90419</t>
-  </si>
-  <si>
-    <t>Spaghetti Carbonara,10.50,15.00,Speck/Kaese</t>
-  </si>
-  <si>
-    <t>Pizza Salami,8.50,15.00,Salami</t>
-  </si>
-  <si>
-    <t>Pizzeria 1</t>
-  </si>
-  <si>
-    <t>Pizzeria 2</t>
-  </si>
-  <si>
-    <t>Pizzeria 3</t>
-  </si>
-  <si>
-    <t>Pizzeria 4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>burgerme</t>
   </si>
   <si>
-    <t>Amerikansisch</t>
-  </si>
-  <si>
     <t>Bucher Strasse 35 Nuernberg 90419</t>
   </si>
   <si>
-    <t>CheeseBurger,8.49,8.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
-  </si>
-  <si>
-    <t>SueßkartoffelPommes,4.69,6.20,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
-  </si>
-  <si>
     <t>Hamburger,7.49,8.20,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
   </si>
   <si>
-    <t>TrippleCheeseBurger,9.49,9.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
-  </si>
-  <si>
-    <t>NewYorkerBurger,7.49,9.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
-  </si>
-  <si>
-    <t>BaconEggsBurger,9.49,9.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
-  </si>
-  <si>
-    <t>CrunchyChickenBurger,8.49,7.40,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
-  </si>
-  <si>
-    <t>GrilledChickenBurger,9.49,11.30,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
-  </si>
-  <si>
-    <t>CrustyChickenBurger,7.49,8.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
-  </si>
-  <si>
     <t>Pommes,3.69,6.50,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
   </si>
   <si>
-    <t>ChickenWings,6.49,8.20,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
-  </si>
-  <si>
-    <t>ChickenNuggets,6.49,6.50,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
-  </si>
-  <si>
-    <t>ChickenFingers,6.49,7.50,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
-  </si>
-  <si>
-    <t>Chili-CheeseNuggets,6.49,8.20,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
-  </si>
-  <si>
     <t>Vuong - Citywok</t>
   </si>
   <si>
@@ -118,93 +46,15 @@
     <t>Fruehlingsrolle,2.50,4.10,Hackfleisch/Gemuese</t>
   </si>
   <si>
-    <t>Wan-TanSuppe,3.00,5.20,Soja/Hackfleisch</t>
-  </si>
-  <si>
-    <t>GemischterSalat,4.50,6.10,Joghurt-Dressing/Balsamico-Dressing</t>
-  </si>
-  <si>
     <t>Huehnerfleischsalat,5.50,7.30,Huehnerfleisch/Joghurt-Dressing</t>
   </si>
   <si>
-    <t>SpinatMakiSushi,4.20,3.40,Spinat/Sesam</t>
-  </si>
-  <si>
-    <t>KappaMakiSushi,3.60,3.50,Sesam/Gurken</t>
-  </si>
-  <si>
-    <t>GebratenerReismitHuehnerfleisch,7.90,11.30,Reis/Huehnerfleisch/Gemuese</t>
-  </si>
-  <si>
-    <t>GebratenerReismitRindfleisch,7.90,10.50,Rinderfleisch/Gemuese/Reis</t>
-  </si>
-  <si>
-    <t>GebrateneNudelnmitknusprigenEntenfleisch,10.50,13.20,Ente/Nudeln/Gemuese</t>
-  </si>
-  <si>
-    <t>NudelnmitRinderfleisch,11.50,11.20,Rinderfleisch/Nudeln/Gemuese</t>
-  </si>
-  <si>
-    <t>knusprigesHaehnchen,8.90,9.20,Suess-Sauer-Sosse/Haehnchen</t>
-  </si>
-  <si>
-    <t>paniertesHaehnchenKnoblauch,8.90,10.50,Suess-Sauer-Sosse/Scharfer-Sosse/Haehnchen</t>
-  </si>
-  <si>
-    <t>GebratenerTintenfisch,13.50,11.20,Gemuese/Sichuansauce</t>
-  </si>
-  <si>
     <t>Pizza Cappucino</t>
   </si>
   <si>
-    <t>Italiennisch</t>
-  </si>
-  <si>
     <t>Rollnerstrasse 182 Nuernberg 90425</t>
   </si>
   <si>
-    <t>SalatCappucino,10.00,4.40,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
-  </si>
-  <si>
-    <t>RucolaSalatmitKirschtomaten,9.90,5.20,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
-  </si>
-  <si>
-    <t>ItalienischerSalat,8.50,5.30,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
-  </si>
-  <si>
-    <t>HähnchenSalat,9.90,6.20,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
-  </si>
-  <si>
-    <t>PizzaMargherita,7.00,10.50,Ananas/Broccoli/Fetakäse</t>
-  </si>
-  <si>
-    <t>PizzaFormaggio,8.00,10.40,Ananas/Broccoli/Fetakäse</t>
-  </si>
-  <si>
-    <t>PizzaSalami,8.00,11.20,Ananas/Broccoli/Fetakäse</t>
-  </si>
-  <si>
-    <t>PizzaSpezial,8.50,12.50,Ananas/Broccoli/Fetakäse</t>
-  </si>
-  <si>
-    <t>PizzaHawaii,8.50,10.50,Ananas/Broccoli/Fetakäse</t>
-  </si>
-  <si>
-    <t>SpaghettiBolognese,9.90,8.20,Parmesan</t>
-  </si>
-  <si>
-    <t>PastaChicken,9.90,9.30,Parmesan</t>
-  </si>
-  <si>
-    <t>PastaParmaschinken,10.90,10.40,Parmesan</t>
-  </si>
-  <si>
-    <t>PastaAioli,8.90,8.40,Parmesan</t>
-  </si>
-  <si>
-    <t>PastaTortellini,9.90,10.20,Parmesan</t>
-  </si>
-  <si>
     <t>Panjabi Shaan</t>
   </si>
   <si>
@@ -223,51 +73,15 @@
     <t>Linsensuppe,4.00,5.30,Koriander/Linsen</t>
   </si>
   <si>
-    <t>HuehnerfleischKurkumaSuppe,4.50,6.30,Kurkuma/Huehnerfleisch</t>
-  </si>
-  <si>
-    <t>gemischterSalat,4.90,6.20,Joghurt-Dressing/Olivenoel</t>
-  </si>
-  <si>
-    <t>SalatmitgerilltenHaehnchenbrustfilet,9.90,9.40,Haehnchenfleisch/Joghurt-Dressin/Naanbrot</t>
-  </si>
-  <si>
-    <t>CurrymitHaehnchenbrustfillet,13.50,14.20,Haehnchenfleisch/Curry/Cashew-Kokos-Sahnesauce</t>
-  </si>
-  <si>
-    <t>CurrymitEntenfleisch,15.50,16.20,Entenfleisch/Curry/Gemuese</t>
-  </si>
-  <si>
-    <t>RoganCurry,14.50,13.30,Lammfilet/Curry</t>
-  </si>
-  <si>
-    <t>SeelachsfiletmitTomatensosse,14.90,12.40,Tomatensosse/Lachsfilet/Ingwer</t>
-  </si>
-  <si>
-    <t>SeelachfiletmitMangososse,14.90,14.20,Mangososse/Lachsfilet</t>
-  </si>
-  <si>
-    <t>ReismitHuehnchenfleisch,12.90,Curry/Huehnchenfleisch/Reis</t>
-  </si>
-  <si>
     <t>Hefeteigbrot,2.50,4.50,Salz/Olivenoel/Origano</t>
   </si>
   <si>
-    <t>HefeteigbromitfrischerIngwer,3.50,5.20,Ingwer/Brot/Butter</t>
-  </si>
-  <si>
     <t>Asia Imbiss MEI-KA</t>
   </si>
   <si>
     <t>Faerberstrasse 50 Nuernberg 90402</t>
   </si>
   <si>
-    <t>KnusprigeEnte,13.00,8.40,Reis/Nudeln</t>
-  </si>
-  <si>
-    <t>GebrateneNudelnmitHuehnerfleisch, 10.00,6.20, Reis/Huehnerfleisch</t>
-  </si>
-  <si>
     <t>Suppe,4.50,2.20, Gemuese/Reis</t>
   </si>
   <si>
@@ -277,34 +91,238 @@
     <t>Seetang-Eier-Suppe,4.50,3.10</t>
   </si>
   <si>
-    <t>VegetarischeMini-Fruehlingsrollen, 3.20,2.00</t>
-  </si>
-  <si>
     <t>Haehnchenfleischsuppe,5.50,4.10, Champignons, Tomaten</t>
   </si>
   <si>
     <t>Schweinefleisch,13.00,6.10, Ingwer/Fruehlingslauch/Gemuese</t>
   </si>
   <si>
-    <t>GebratenerTofu,13.00,5.00, Schweinefleisch/Gemuese/Reis</t>
-  </si>
-  <si>
-    <t>HausgemachterchinesischerSpeck,14.00,5.50,Reis/Gemuese</t>
-  </si>
-  <si>
     <t>Schweinerippchen,14.00,7.00, Sichuan-Pfeffer/Reis</t>
   </si>
   <si>
     <t>Rindfleisch,14.00,8.00, schwarzer Pfeffer/Chili/Reis</t>
   </si>
   <si>
-    <t>GebrateneHummerkrabben,17.00,9.00,Gemuese/Reis</t>
-  </si>
-  <si>
-    <t>GebratenerTintenfisch,15.00,9.00,Gemuese/Sichuansauce</t>
-  </si>
-  <si>
-    <t>GebratenerReismitknusprigenEntenfleisch13.00,5.00,Entenfleisch/Gemuese/Reis</t>
+    <t>Amerikanisch</t>
+  </si>
+  <si>
+    <t>Cheese Burger,8.49,8.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>Sueßkartoffel Pommes,4.69,6.20,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>Tripple Cheese Burger,9.49,9.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>New Yorker Burger,7.49,9.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>Bacon Eggs Burger,9.49,9.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>Crunchy ChickenBurger,8.49,7.40,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>Grilled Chicken Burger,9.49,11.30,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>Crusty Chicken Burger,7.49,8.50,Mayonnaise/Tabasco/Ketchup/Burgersauce/Senf</t>
+  </si>
+  <si>
+    <t>Chicken Wings,6.49,8.20,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets,6.49,6.50,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>Chicken Fingers,6.49,7.50,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>Chili-Cheese Nuggets,6.49,8.20,Ketchup/Mayonnaise/Vegane Mayonnaise</t>
+  </si>
+  <si>
+    <t>Wan-Tan Suppe,3.00,5.20,Soja/Hackfleisch</t>
+  </si>
+  <si>
+    <t>Gemischter Salat,4.50,6.10,Joghurt-Dressing/Balsamico-Dressing</t>
+  </si>
+  <si>
+    <t>Spinat Maki Sushi,4.20,3.40,Spinat/Sesam</t>
+  </si>
+  <si>
+    <t>Kappa Mak iSushi,3.60,3.50,Sesam/Gurken</t>
+  </si>
+  <si>
+    <t>Gebratener Reismit Huehnerfleisch,7.90,11.30,Reis/Huehnerfleisch/Gemuese</t>
+  </si>
+  <si>
+    <t>Gebratener Reis mit Rindfleisch,7.90,10.50,Rinderfleisch/Gemuese/Reis</t>
+  </si>
+  <si>
+    <t>Gebratene Nudeln mit knusprigen Entenfleisch,10.50,13.20,Ente/Nudeln/Gemuese</t>
+  </si>
+  <si>
+    <t>Nudeln mit Rinderfleisch,11.50,11.20,Rinderfleisch/Nudeln/Gemuese</t>
+  </si>
+  <si>
+    <t>knuspriges Haehnchen,8.90,9.20,Suess-Sauer-Sosse/Haehnchen</t>
+  </si>
+  <si>
+    <t>paniertes Haehnchen Knoblauch,8.90,10.50,Suess-Sauer-Sosse/Scharfer-Sosse/Haehnchen</t>
+  </si>
+  <si>
+    <t>Gebratener Tintenfisch,13.50,11.20,Gemuese/Sichuansauce</t>
+  </si>
+  <si>
+    <t>Italienisch</t>
+  </si>
+  <si>
+    <t>Salat Cappucino,10.00,4.40,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
+  </si>
+  <si>
+    <t>Rucola Salat mit Kirschtomaten,9.90,5.20,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
+  </si>
+  <si>
+    <t>Italienischer Salat,8.50,5.30,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
+  </si>
+  <si>
+    <t>Hähnchen Salat,9.90,6.20,Joghurt-Dressing/Olivenoel-Balsamico-Dressing/Olivenoel-Essig-Dressing</t>
+  </si>
+  <si>
+    <t>Pizza Margherita,7.00,10.50,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>Pizza Formaggio,8.00,10.40,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>Pizza Salami,8.00,11.20,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>Pizza Spezial,8.50,12.50,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>Pizza Hawaii,8.50,10.50,Ananas/Broccoli/Fetakäse</t>
+  </si>
+  <si>
+    <t>Spaghetti Bolognese,9.90,8.20,Parmesan</t>
+  </si>
+  <si>
+    <t>Pasta Chicken,9.90,9.30,Parmesan</t>
+  </si>
+  <si>
+    <t>Pasta Parmaschinken,10.90,10.40,Parmesan</t>
+  </si>
+  <si>
+    <t>Pasta Aioli,8.90,8.40,Parmesan</t>
+  </si>
+  <si>
+    <t>Pasta Tortellini,9.90,10.20,Parmesan</t>
+  </si>
+  <si>
+    <t>Huehnerfleisch Kurkuma Suppe,4.50,6.30,Kurkuma/Huehnerfleisch</t>
+  </si>
+  <si>
+    <t>gemischter Salat,4.90,6.20,Joghurt-Dressing/Olivenoel</t>
+  </si>
+  <si>
+    <t>Salat mit gerillten Haehnchenbrustfilet,9.90,9.40,Haehnchenfleisch/Joghurt-Dressin/Naanbrot</t>
+  </si>
+  <si>
+    <t>Curry mit Haehnchenbrustfillet,13.50,14.20,Haehnchenfleisch/Curry/Cashew-Kokos-Sahnesauce</t>
+  </si>
+  <si>
+    <t>Curry mit Entenfleisch,15.50,16.20,Entenfleisch/Curry/Gemuese</t>
+  </si>
+  <si>
+    <t>Rogan Curry,14.50,13.30,Lammfilet/Curry</t>
+  </si>
+  <si>
+    <t>Seelachsfilet mit Tomatensosse,14.90,12.40,Tomatensosse/Lachsfilet/Ingwer</t>
+  </si>
+  <si>
+    <t>Seelachfilet mit Mangososse,14.90,14.20,Mangososse/Lachsfilet</t>
+  </si>
+  <si>
+    <t>Reis mit Huehnchenfleisch,12.90,Curry/Huehnchenfleisch/Reis</t>
+  </si>
+  <si>
+    <t>Hefeteigbro mit frischer Ingwer,3.50,5.20,Ingwer/Brot/Butter</t>
+  </si>
+  <si>
+    <t>Knusprige Ente,13.00,8.40,Reis/Nudeln</t>
+  </si>
+  <si>
+    <t>Gebratene Nudeln mit Huehnerfleisch, 10.00,6.20, Reis/Huehnerfleisch</t>
+  </si>
+  <si>
+    <t>Vegetarische Mini-Fruehlingsrollen, 3.20,2.00</t>
+  </si>
+  <si>
+    <t>Gebratener Tofu,13.00,5.00, Schweinefleisch/Gemuese/Reis</t>
+  </si>
+  <si>
+    <t>Hausgemachter chinesischer Speck,14.00,5.50,Reis/Gemuese</t>
+  </si>
+  <si>
+    <t>Gebratene Hummerkrabben,17.00,9.00,Gemuese/Reis</t>
+  </si>
+  <si>
+    <t>Gebratener Tintenfisch,15.00,9.00,Gemuese/Sichuansauce</t>
+  </si>
+  <si>
+    <t>Hamans Kebab</t>
+  </si>
+  <si>
+    <t>Türkisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucher Strasse 82 Nuernberg 90408 </t>
+  </si>
+  <si>
+    <t>Kebab Beef,4.50,5.20,Rindfleisch/Joghurt-Sosse</t>
+  </si>
+  <si>
+    <t>Kebab Chicken,4.60,5.20,Huehnchenfleisch/Joghurt-Sosse</t>
+  </si>
+  <si>
+    <t>Kebab Chicken Box,5.20,5.50,Chicken/Joghurt-Sosse</t>
+  </si>
+  <si>
+    <t>Kebab Beef Box,5.20,4.20,Joghurt-Sosse/Rindfleisch</t>
+  </si>
+  <si>
+    <t>Köfte,3.40,4.20,Joghurt-Sosse/Erbsen-Suppe</t>
+  </si>
+  <si>
+    <t>Pommes,3.40,5.20,Ketchup/Mayonnaise/Senf</t>
+  </si>
+  <si>
+    <t>Chicken Sandwich,5.20,4.20,Huehnchen/Ketchup/Mayonnaise</t>
+  </si>
+  <si>
+    <t>Chicken Teller,11.20,14.20,Burger-Sosse/Ketchup/Huehnchen</t>
+  </si>
+  <si>
+    <t>Köfte Wrap,6.20,4.50,Köfte/Joghurt-Sosse</t>
+  </si>
+  <si>
+    <t>Doenner,5.50,6.00,Joghurt-Sosse/Mayonnaise/Ketchup</t>
+  </si>
+  <si>
+    <t>Falafel,3.00,2.30,Bohnen/Erbsen</t>
+  </si>
+  <si>
+    <t>Reis,2.50,3.20,Salz/Pfeffer</t>
+  </si>
+  <si>
+    <t>Hummius,3.00,2.30,Bro/Bohnen</t>
+  </si>
+  <si>
+    <t>Gebratener Reis mit knusprigen Entenfleisch,13.00,5.00,Entenfleisch/Gemuese/Reis</t>
+  </si>
+  <si>
+    <t>Falafel Sandwich,3.50,3.40,Bohnen/Erbsen/Joghurt-Sosse</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1185,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,362 +1195,380 @@
     <col min="6" max="6" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
